--- a/biology/Zoologie/David_Fleay/David_Fleay.xlsx
+++ b/biology/Zoologie/David_Fleay/David_Fleay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Howells Fleay (6 janvier 1907, Ballarat, Victoria - 7 août 1993) est un naturaliste australien pionnier de la reproduction en captivité d'espèces menacées, et a été la première personne à réussir à faire se reproduire un ornithorynque (Ornithorhynchus anatinus) en captivité.
 Sa mère, Maude Glover Fleay, a étudié la peinture sous la direction de Fred McCubbin, son père, William Henry Fleay, était pharmacien à Ballarat. Après ses études secondaires, Fleay a commencé à être employé dans la pharmacie de son père puis a été brièvement professeur au lycée de Ballarat.
 Il quitte Ballarat en 1927 pour passer son baccalauréat en sciences et devenir professeur à l'Université de Melbourne. Là, il a rencontré une étudiante, Mary Sigrid Collie, qu'il épousa en 1931, la même année qu'il obtint ses diplômes d'enseignant en sciences naturelles. Il sera employé comme enseignant au lycée de Ballarat jusqu'en 1934.
 Son intérêt pour la nature, coïncida avec l'éveil de l'intérêt scientifique pour les espèces menacées et la réalisation, dans le public, que les animaux australiens pouvaient avoir d'autres intérêts que de servir de source de nourriture. 
-Il a réalisé l'importance de la conservation des espèces en voie de disparition dès le début de sa carrière quand, en 1933, il fut la dernière personne à photographier un thylacine (tigre de Tasmanie) au zoo de Hobart. Lors de la prise de photo, il fut mordu aux fesses, et assuma fièrement sa cicatrice tout au long de sa vie[1].
+Il a réalisé l'importance de la conservation des espèces en voie de disparition dès le début de sa carrière quand, en 1933, il fut la dernière personne à photographier un thylacine (tigre de Tasmanie) au zoo de Hobart. Lors de la prise de photo, il fut mordu aux fesses, et assuma fièrement sa cicatrice tout au long de sa vie.
 En 1934, Fleay est invité à concevoir et mettre en place la section animal australien au zoo de Melbourne et va y travailler pendant 4 ans. Pendant ce temps, il obtient des résultats pour ses recherches, notamment le premier élevage en captivité d'émeus, de plusieurs autres espèces d'oiseaux, comme le podarge gris, mais aussi de marsupiaux comme le koala. Il a également commencé des recherches sur la reproduction de l'ornithorynque. En 1937, il porta aussi ses efforts sur l'éducation du public en faisant des émissions scientifiques sur une station de radio de Melbourne. Plus tard cette année-là, les désaccords avec la direction du zoo atteignent leur paroxysme et Fleay est licencié, principalement parce qu'il croyait que les oiseaux et les animaux en captivité doivent être nourris comme dans la nature.
 En 1962 Fleay cofonda la Wildlife Conservation Society du Queensland avec Judith Wright, Brian Clouston et Kathleen McArthur.
 Par simple coïncidence, la réserve d'Healesville, à quelque 90 km de Melbourne, avait besoin d'un directeur et il fut nommé. La réserve abritait des quolls, des diables de Tasmanie, des dingos et divers oiseaux de proie, auquel il a ajouté des serpents-tigres pour récupérer du venin et des ornithorynques. Beaucoup d'animaux étaient logés dans de grands parcs dans lesquels les visiteurs entraient et sortaient par des portes basculantes afin de pouvoir être directement en contact avec les animaux. Il a également organisé l'alimentation des ornithorynques en spectacle quotidien.
